--- a/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.0959785741085</v>
+        <v>89.97400379448453</v>
       </c>
       <c r="D2" t="n">
-        <v>3.181919776410898</v>
+        <v>3.288639654505507</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.30229160812979</v>
+        <v>89.40899063633177</v>
       </c>
       <c r="D3" t="n">
-        <v>3.762124931570119</v>
+        <v>3.706013306039441</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.14338990037255</v>
+        <v>88.13560963233618</v>
       </c>
       <c r="D4" t="n">
-        <v>3.48785997774851</v>
+        <v>3.535383879582482</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.84022226301164</v>
+        <v>86.44029017111184</v>
       </c>
       <c r="D5" t="n">
-        <v>3.24923590969962</v>
+        <v>3.865232298438174</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.80376323297182</v>
+        <v>85.3903114602178</v>
       </c>
       <c r="D6" t="n">
-        <v>3.413659002141223</v>
+        <v>2.972013888748921</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.84797286612957</v>
+        <v>84.49404884839728</v>
       </c>
       <c r="D7" t="n">
-        <v>3.190011656257308</v>
+        <v>3.759991235759788</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.1766052449961</v>
+        <v>83.55931423223525</v>
       </c>
       <c r="D8" t="n">
-        <v>3.635623530000585</v>
+        <v>3.508791151025362</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.66555245740196</v>
+        <v>82.92356862362224</v>
       </c>
       <c r="D9" t="n">
-        <v>3.537135866781555</v>
+        <v>3.28480759837092</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.94462653926362</v>
+        <v>81.73110003259893</v>
       </c>
       <c r="D10" t="n">
-        <v>3.855209370454179</v>
+        <v>3.417794913055086</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.26174302910202</v>
+        <v>81.32286426546533</v>
       </c>
       <c r="D11" t="n">
-        <v>3.583600453420487</v>
+        <v>3.591718467277442</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.01664885708891</v>
+        <v>79.96346512259174</v>
       </c>
       <c r="D12" t="n">
-        <v>3.416049365228126</v>
+        <v>4.171177623332511</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.96868826176782</v>
+        <v>78.45863316290144</v>
       </c>
       <c r="D13" t="n">
-        <v>3.152498301451121</v>
+        <v>3.43282106797885</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.57034167588688</v>
+        <v>78.11112721066731</v>
       </c>
       <c r="D14" t="n">
-        <v>3.388774587179683</v>
+        <v>3.616366967769148</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.95880001834557</v>
+        <v>77.75306096882697</v>
       </c>
       <c r="D15" t="n">
-        <v>3.604159998503834</v>
+        <v>3.641630616725475</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.13788123259629</v>
+        <v>76.11104692310609</v>
       </c>
       <c r="D16" t="n">
-        <v>3.681906654470879</v>
+        <v>3.388919755494011</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.25295354135069</v>
+        <v>74.36778238867652</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530995520698594</v>
+        <v>4.184726982714876</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.28852261236104</v>
+        <v>73.79321830500272</v>
       </c>
       <c r="D18" t="n">
-        <v>3.454044459210822</v>
+        <v>3.37313804403802</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.93678931488986</v>
+        <v>73.10009481994452</v>
       </c>
       <c r="D19" t="n">
-        <v>3.952477931479806</v>
+        <v>3.869822426688908</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.01368963221536</v>
+        <v>71.8740615437341</v>
       </c>
       <c r="D20" t="n">
-        <v>3.391804053798833</v>
+        <v>3.764531728523833</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.9304620072746</v>
+        <v>70.92015858668913</v>
       </c>
       <c r="D21" t="n">
-        <v>3.592017629835229</v>
+        <v>4.17375400131754</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.43870192486041</v>
+        <v>69.36735315047315</v>
       </c>
       <c r="D22" t="n">
-        <v>3.676094594987181</v>
+        <v>4.074466191506045</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.20385473350414</v>
+        <v>68.649463886316</v>
       </c>
       <c r="D23" t="n">
-        <v>4.31508037581148</v>
+        <v>3.584233118877385</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.94492019301202</v>
+        <v>68.53813043237045</v>
       </c>
       <c r="D24" t="n">
-        <v>4.043293331955334</v>
+        <v>4.513544307397209</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.54388475220213</v>
+        <v>67.57141679471005</v>
       </c>
       <c r="D25" t="n">
-        <v>4.028009457789836</v>
+        <v>3.685339894315315</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.2586431199508</v>
+        <v>65.71341095870908</v>
       </c>
       <c r="D26" t="n">
-        <v>4.361685154912011</v>
+        <v>4.299154734526634</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.60350187324839</v>
+        <v>64.67107365135226</v>
       </c>
       <c r="D27" t="n">
-        <v>4.349666588959916</v>
+        <v>4.031906276982334</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.91571093648843</v>
+        <v>64.13105549138598</v>
       </c>
       <c r="D28" t="n">
-        <v>4.192755415995493</v>
+        <v>3.956188570182062</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.84622388678804</v>
+        <v>62.64528926200465</v>
       </c>
       <c r="D29" t="n">
-        <v>4.058332299195214</v>
+        <v>3.819647843766218</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.37588242915711</v>
+        <v>62.0290515208622</v>
       </c>
       <c r="D30" t="n">
-        <v>4.281972280032996</v>
+        <v>4.016664161580948</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.46988479865676</v>
+        <v>61.21313071871957</v>
       </c>
       <c r="D31" t="n">
-        <v>4.053603109914263</v>
+        <v>4.201698539499264</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.36353205266089</v>
+        <v>59.60724793945021</v>
       </c>
       <c r="D32" t="n">
-        <v>3.669524387028501</v>
+        <v>4.513769320967602</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.88953529544623</v>
+        <v>58.1079414059601</v>
       </c>
       <c r="D33" t="n">
-        <v>4.312001932538812</v>
+        <v>3.922163922038258</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.59949318272842</v>
+        <v>58.15601823292487</v>
       </c>
       <c r="D34" t="n">
-        <v>4.551334966364487</v>
+        <v>4.099895927248252</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.0620983270216</v>
+        <v>56.39869822225864</v>
       </c>
       <c r="D35" t="n">
-        <v>4.72367945741011</v>
+        <v>4.466895035403999</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.50182999722001</v>
+        <v>55.2658034148756</v>
       </c>
       <c r="D36" t="n">
-        <v>4.193830086711722</v>
+        <v>4.46150670994835</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.74853851995838</v>
+        <v>54.94524262626292</v>
       </c>
       <c r="D37" t="n">
-        <v>3.912392931642561</v>
+        <v>4.230483978483416</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.21633397392335</v>
+        <v>54.78861004604938</v>
       </c>
       <c r="D38" t="n">
-        <v>4.237801273807485</v>
+        <v>3.731340159997063</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.91242821613456</v>
+        <v>52.90409926493103</v>
       </c>
       <c r="D39" t="n">
-        <v>4.302501972227024</v>
+        <v>3.843641477620286</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.40369662485831</v>
+        <v>51.29508848807252</v>
       </c>
       <c r="D40" t="n">
-        <v>4.564163251561857</v>
+        <v>3.824392969867228</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.48342499945029</v>
+        <v>50.85898409865084</v>
       </c>
       <c r="D41" t="n">
-        <v>4.510706838244213</v>
+        <v>4.60683891428728</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.18733760450598</v>
+        <v>49.89290268963509</v>
       </c>
       <c r="D42" t="n">
-        <v>4.274123709819552</v>
+        <v>3.631991909180184</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.26632566945711</v>
+        <v>48.63734884038141</v>
       </c>
       <c r="D43" t="n">
-        <v>4.074665126803015</v>
+        <v>4.327863870952073</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.4145306840762</v>
+        <v>47.81921702375373</v>
       </c>
       <c r="D44" t="n">
-        <v>4.101925984299531</v>
+        <v>4.69293373001386</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.39765315102879</v>
+        <v>46.09989933180906</v>
       </c>
       <c r="D45" t="n">
-        <v>4.361671786688512</v>
+        <v>4.484492952697846</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.65480220026055</v>
+        <v>46.00363891051796</v>
       </c>
       <c r="D46" t="n">
-        <v>4.832207547668951</v>
+        <v>4.698095028484341</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.07576770513091</v>
+        <v>44.62033508941072</v>
       </c>
       <c r="D47" t="n">
-        <v>4.284118912942924</v>
+        <v>4.60144522369868</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.86019977222356</v>
+        <v>43.73596154273005</v>
       </c>
       <c r="D48" t="n">
-        <v>4.032895999293159</v>
+        <v>4.180771140451136</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.88180009496449</v>
+        <v>43.09718857263976</v>
       </c>
       <c r="D49" t="n">
-        <v>4.346609612519014</v>
+        <v>5.205538199371915</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.40076776793787</v>
+        <v>41.29750404705459</v>
       </c>
       <c r="D50" t="n">
-        <v>4.702870271004308</v>
+        <v>4.119113380956454</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.80209773422514</v>
+        <v>40.00893207907376</v>
       </c>
       <c r="D51" t="n">
-        <v>4.774878337801321</v>
+        <v>4.79851843627447</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.73812982720558</v>
+        <v>39.82199665270339</v>
       </c>
       <c r="D52" t="n">
-        <v>4.930741328249486</v>
+        <v>4.858751095800134</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.33270540027534</v>
+        <v>39.14146434178367</v>
       </c>
       <c r="D53" t="n">
-        <v>4.688076540566434</v>
+        <v>4.346261968612351</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.09425569306975</v>
+        <v>37.74866148751124</v>
       </c>
       <c r="D54" t="n">
-        <v>4.394774826686989</v>
+        <v>4.567617659928397</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.90525755637314</v>
+        <v>37.23790725295897</v>
       </c>
       <c r="D55" t="n">
-        <v>4.608722767824491</v>
+        <v>4.529809054787815</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.12442307767244</v>
+        <v>36.89083982144421</v>
       </c>
       <c r="D56" t="n">
-        <v>4.987133820913606</v>
+        <v>4.67792078696085</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.37097490482297</v>
+        <v>34.53853259301914</v>
       </c>
       <c r="D57" t="n">
-        <v>4.728423033409378</v>
+        <v>5.563091930023199</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.41893490439352</v>
+        <v>34.20072733210738</v>
       </c>
       <c r="D58" t="n">
-        <v>5.114765233092942</v>
+        <v>4.5427047739759</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.35569398301534</v>
+        <v>33.29882838967282</v>
       </c>
       <c r="D59" t="n">
-        <v>4.805032998451114</v>
+        <v>5.301452302261325</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.91678899368659</v>
+        <v>32.12957803400751</v>
       </c>
       <c r="D60" t="n">
-        <v>4.456293333842758</v>
+        <v>5.163361059860351</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.1672781055588</v>
+        <v>30.20901345817929</v>
       </c>
       <c r="D61" t="n">
-        <v>5.030167390587089</v>
+        <v>4.611291043920206</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.96223624765773</v>
+        <v>29.23982230340852</v>
       </c>
       <c r="D62" t="n">
-        <v>5.449023491504518</v>
+        <v>4.80865658193546</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.49490206791341</v>
+        <v>28.486601662145</v>
       </c>
       <c r="D63" t="n">
-        <v>4.312145911173776</v>
+        <v>5.063819812075456</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.56658654970603</v>
+        <v>28.43374722412756</v>
       </c>
       <c r="D64" t="n">
-        <v>5.007896112735628</v>
+        <v>4.723263307973677</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.81530009634479</v>
+        <v>27.68283975552825</v>
       </c>
       <c r="D65" t="n">
-        <v>4.005303462874004</v>
+        <v>4.965872841638898</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.57217734605301</v>
+        <v>25.96175258668837</v>
       </c>
       <c r="D66" t="n">
-        <v>5.204486298481243</v>
+        <v>4.686217484678619</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.5446783931923</v>
+        <v>24.91522917030859</v>
       </c>
       <c r="D67" t="n">
-        <v>4.539185370367177</v>
+        <v>4.741489003035675</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.36609521405979</v>
+        <v>24.15509492375194</v>
       </c>
       <c r="D68" t="n">
-        <v>5.350927243186031</v>
+        <v>4.656089815420722</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.86838061154495</v>
+        <v>22.95700787467829</v>
       </c>
       <c r="D69" t="n">
-        <v>4.571562166173678</v>
+        <v>4.691816004679438</v>
       </c>
     </row>
   </sheetData>
